--- a/medicine/Pharmacie/Salicyline/Salicyline.xlsx
+++ b/medicine/Pharmacie/Salicyline/Salicyline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La salicyline est un anti-inflammatoire produit dans l'écorce de saule blanc (genre Salix).
@@ -489,7 +501,7 @@
 En 1825, Francesco Fontana, un pharmacien italien isole la substance active du saule blanc et le nomme salicine. 
 En 1828, à Munich, Johann Buchner extrait de l'écorce de saule blanc des cristaux jaunes disposés en aiguilles : la salicyline, au goût amer. 
 Un an plus tard, en 1829, un pharmacien français, Pierre-Joseph Leroux, améliore le procédé. Il fait bouillir de la poudre d'écorce de saule blanc dans de l'eau et concentre sa préparation. Il obtient des cristaux blancs qu'il baptise salicyline (de Salix = saule). Leroux déclare à l'Académie des sciences que la salicyline guérit les fièvres. 
-La salicyline, comme la quinine possède un goût amer[2].
+La salicyline, comme la quinine possède un goût amer.
 </t>
         </is>
       </c>
